--- a/Πρότυπο_Κατανομής_ΚΕΝΟ.xlsx
+++ b/Πρότυπο_Κατανομής_ΚΕΝΟ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\16.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\18.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BAC554-8DBA-42FC-A94D-2216D12F489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E08CC-4F89-476F-B82D-0CB1F668B936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,16 +413,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
